--- a/scripts/SampleTestbedFile.xlsx
+++ b/scripts/SampleTestbedFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">hostname</t>
   </si>
@@ -46,40 +46,22 @@
     <t xml:space="preserve">platform</t>
   </si>
   <si>
-    <t xml:space="preserve">Router01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.111.211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco</t>
+    <t xml:space="preserve">SW-PISO2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50.50.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Technology2019$</t>
   </si>
   <si>
     <t xml:space="preserve">ssh</t>
   </si>
   <si>
     <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iosv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.111.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.111.213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.111.214</t>
   </si>
 </sst>
 </file>
@@ -177,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -188,7 +170,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.28"/>
@@ -233,99 +215,21 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
